--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -694,7 +694,7 @@
         <v>9600000</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>960000</v>
@@ -935,7 +935,7 @@
         <v>3000000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>40000</v>
@@ -2642,7 +2642,7 @@
         <v>132400000</v>
       </c>
       <c r="M30" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>10860000</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>50000</v>
@@ -3087,7 +3087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="3">
@@ -3122,53 +3122,53 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>962500</v>
+        <v>997500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>7980000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6160000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3178,7 +3178,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3188,7 +3188,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3198,67 +3198,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7700000</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>960000</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3268,7 +3268,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3278,47 +3278,47 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3328,27 +3328,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4020000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3358,7 +3358,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3368,161 +3368,71 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>15687500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4020000</v>
+        <v>4070000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>15372500</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4070000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>20122500</v>
+        <v>20437500</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-5 Nguyễn Hoàng Yến Quyên 7-2024.xlsx
@@ -952,7 +952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1194,10 +1194,10 @@
         <v>21500000</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>1720000</v>
+        <v>2150000</v>
       </c>
     </row>
     <row r="5">
@@ -1250,10 +1250,10 @@
         <v>11000000</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>880000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="6">
@@ -1476,10 +1476,10 @@
         <v>7000000</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>560000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="10">
@@ -1532,10 +1532,10 @@
         <v>3500000</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>280000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="11">
@@ -2268,10 +2268,10 @@
         <v>5000000</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N23" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="24">
@@ -2324,10 +2324,10 @@
         <v>7000000</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N24" t="n">
-        <v>560000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="25">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2617,35 +2617,147 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>591</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07-26-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Huỳnh Huyền Trân</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I30" t="n">
+        <v/>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>596</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>bảo trân</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="I31" t="n">
+        <v/>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>127000000</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>135000000</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>6200000</v>
       </c>
-      <c r="K30" t="n">
-        <v>133200000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>132400000</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="K32" t="n">
+        <v>141200000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>140400000</v>
+      </c>
+      <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N30" t="n">
-        <v>10860000</v>
+      <c r="N32" t="n">
+        <v>12640000</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +3199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,21 +3220,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>997500</v>
+        <v>927500</v>
       </c>
     </row>
     <row r="4">
@@ -3132,7 +3244,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7980000</v>
+        <v>8480000</v>
       </c>
     </row>
     <row r="5">
@@ -3162,7 +3274,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6160000</v>
+        <v>6640000</v>
       </c>
     </row>
     <row r="8">
@@ -3218,47 +3330,47 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680000</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3268,7 +3380,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3278,17 +3390,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3298,27 +3410,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3328,57 +3440,57 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4020000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50000</v>
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3388,51 +3500,111 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15687500</v>
+        <v>5150000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>16597500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6265000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>20437500</v>
+      <c r="B40" t="n">
+        <v>24422500</v>
       </c>
     </row>
   </sheetData>
